--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>620737.0711101029</v>
+        <v>611502.3725048816</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7765049.281621783</v>
+        <v>6750972.622617711</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6187346.756951113</v>
+        <v>5193450.223461221</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7571371.510522009</v>
+        <v>7954423.08368391</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>159.3500055452808</v>
+        <v>294.7228925766556</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>27.35334490128912</v>
+        <v>21.30608602554484</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>17.80671966285745</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>6.338580986754437</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>175.1183660450254</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,13 +1132,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
@@ -1148,7 +1150,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>86.14767836534818</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1297,19 +1299,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>157.2280411051696</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1354,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>142.5359303380066</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.7578715946248</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>8.324886144139104</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1525,22 +1527,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>166.7165542762729</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
         <v>148.1113806425979</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1.733818067947911</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>168.3586173793045</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1613,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>73.97854195327614</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>228.2601210751802</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1856,13 +1858,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>396.0567315366202</v>
+        <v>96.08513982486603</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,19 +1897,19 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -1999,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2047,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>99.26478053707555</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2065,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2083,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>88.08110241150609</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2144,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>360.1761827375286</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2236,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>34.77426239970504</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
@@ -2296,13 +2298,13 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2324,19 +2326,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2473,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2485,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>74.47440756421638</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
@@ -2533,7 +2535,7 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>113.3390858888641</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2542,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2575,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,10 +2611,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>251.406689650563</v>
       </c>
       <c r="V26" t="n">
-        <v>257.7677368882639</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>114.091153082097</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>237.1532516330649</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>12.68843489334703</v>
       </c>
     </row>
     <row r="29">
@@ -2795,10 +2797,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>374.7552726386488</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590518</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2998,13 +3000,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>71.27423873582488</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>369.6581867526364</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3047,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3089,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>22.92681701721112</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>166.7165542762732</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3196,16 +3198,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>103.2794232765809</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3250,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3275,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>194.3204012433882</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>165.9184445944661</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3430,10 +3432,10 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3481,10 +3483,10 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>266.2723283900672</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>220.2647746254034</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3506,19 +3508,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>374.7552726386488</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>85.29970571609826</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3554,7 +3556,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3661,16 +3663,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>80.13187460755614</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>121.9677285220512</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
         <v>165.577887163712</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -3727,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>106.9706214097034</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>4.208816168492768</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3983,7 +3985,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>62.48252025343767</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4141,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>136.1769805884545</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
@@ -4192,16 +4194,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1269.297515126813</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C2" t="n">
-        <v>1269.297515126813</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D2" t="n">
-        <v>864.8335852198732</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>558.6080202959273</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="L2" t="n">
-        <v>1075.450954962253</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="M2" t="n">
-        <v>1592.293889628578</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N2" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.193789739612</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X2" t="n">
-        <v>1831.193789739612</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y2" t="n">
-        <v>1430.257116687702</v>
+        <v>339.4649771211734</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960225</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922355</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>690.3841994575342</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>690.3841994575342</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>690.3841994575342</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="N3" t="n">
-        <v>704.7239474634683</v>
+        <v>1221.566882129793</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4443,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4510,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W4" t="n">
-        <v>1571.163982250452</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X4" t="n">
-        <v>1543.534340936018</v>
+        <v>202.6759007612825</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>202.6759007612825</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1285.863997266186</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C5" t="n">
-        <v>1285.863997266186</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D5" t="n">
-        <v>1285.863997266186</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E5" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L5" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M5" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N5" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P5" t="n">
-        <v>1767.09327468481</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
         <v>2088.254281480102</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2070.267695962064</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2070.267695962064</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>1686.507395097233</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>1285.863997266186</v>
+        <v>2081.851674422774</v>
       </c>
       <c r="Y5" t="n">
-        <v>1285.863997266186</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="6">
@@ -4641,25 +4643,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L6" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="M6" t="n">
-        <v>1014.414276561226</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N6" t="n">
-        <v>1014.414276561226</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.257211227551</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P6" t="n">
         <v>1738.409816796118</v>
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>694.3474302262943</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E7" t="n">
-        <v>523.2540577880108</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F7" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G7" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4747,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1571.163982250452</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1571.163982250452</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V7" t="n">
-        <v>1297.278237189974</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W7" t="n">
-        <v>1120.390998760655</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X7" t="n">
-        <v>882.0471366203386</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y7" t="n">
-        <v>882.0471366203386</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4780,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2001.236424545407</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C8" t="n">
-        <v>2001.236424545407</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D8" t="n">
-        <v>1596.772494638468</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E8" t="n">
-        <v>1182.432279155364</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F8" t="n">
-        <v>761.4018671090519</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K8" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L8" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N8" t="n">
-        <v>1726.536628995245</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="O8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V8" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W8" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X8" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y8" t="n">
-        <v>2001.236424545407</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="9">
@@ -4857,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767164</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="N9" t="n">
-        <v>1192.007362767164</v>
+        <v>675.164428100838</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767164</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.6991486406494</v>
+        <v>1014.752890035065</v>
       </c>
       <c r="C10" t="n">
-        <v>317.6057762023659</v>
+        <v>843.6595175967811</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>684.1648729196911</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>523.2540577880106</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4984,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>901.134553645929</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>901.134553645929</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>901.134553645929</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X10" t="n">
-        <v>901.134553645929</v>
+        <v>1427.188295040344</v>
       </c>
       <c r="Y10" t="n">
-        <v>676.3988550346937</v>
+        <v>1202.452596429109</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1277.096428763703</v>
+        <v>1678.908632525021</v>
       </c>
       <c r="C11" t="n">
-        <v>866.9718380769729</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="D11" t="n">
-        <v>866.9718380769729</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="E11" t="n">
-        <v>452.6316225938696</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960205</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>295.9505570973564</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L11" t="n">
-        <v>812.7934917636817</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M11" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N11" t="n">
-        <v>1250.250340018485</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O11" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P11" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q11" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5069,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.845305576931</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.845305576931</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.845305576931</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.845305576931</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>2079.845305576931</v>
       </c>
       <c r="Y11" t="n">
-        <v>1687.317608428192</v>
+        <v>1678.908632525021</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K12" t="n">
-        <v>497.5713418949007</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L12" t="n">
-        <v>1014.414276561226</v>
+        <v>537.7254774811263</v>
       </c>
       <c r="M12" t="n">
-        <v>1192.007362767163</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N12" t="n">
-        <v>1192.007362767163</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O12" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q12" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>307.7185867198193</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C13" t="n">
-        <v>307.7185867198193</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D13" t="n">
-        <v>307.7185867198193</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E13" t="n">
-        <v>307.7185867198193</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F13" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H13" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1569.412650868686</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1383.020882748597</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1143.472143725299</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U13" t="n">
-        <v>860.673996271423</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="V13" t="n">
-        <v>586.788251210945</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="W13" t="n">
-        <v>307.7185867198193</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="X13" t="n">
-        <v>307.7185867198193</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="Y13" t="n">
-        <v>307.7185867198193</v>
+        <v>1299.499495805762</v>
       </c>
     </row>
     <row r="14">
@@ -5252,40 +5254,40 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>526.6154762691361</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C14" t="n">
-        <v>116.4908855824062</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D14" t="n">
-        <v>116.4908855824062</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E14" t="n">
-        <v>116.4908855824062</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F14" t="n">
-        <v>116.4908855824062</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>116.4908855824062</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N14" t="n">
         <v>1592.293889628578</v>
@@ -5306,22 +5308,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V14" t="n">
-        <v>1738.416726816583</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="W14" t="n">
-        <v>1738.416726816583</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="X14" t="n">
-        <v>1337.773328985535</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="Y14" t="n">
-        <v>936.8366559336256</v>
+        <v>1866.047797426961</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5351,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>187.8810127971426</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L15" t="n">
-        <v>704.7239474634679</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="M15" t="n">
-        <v>704.7239474634679</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N15" t="n">
-        <v>704.7239474634679</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q15" t="n">
         <v>2088.254281480102</v>
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960205</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960205</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960205</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960205</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5458,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1571.163982250452</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="S16" t="n">
-        <v>1571.163982250452</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="T16" t="n">
-        <v>1340.598203386633</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="U16" t="n">
-        <v>1057.800055932758</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="V16" t="n">
-        <v>783.9143108722797</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="W16" t="n">
-        <v>504.844646381154</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="X16" t="n">
-        <v>266.5007842408373</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960205</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1687.317608428192</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C17" t="n">
-        <v>1277.193017741462</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D17" t="n">
-        <v>1277.193017741462</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E17" t="n">
-        <v>862.8528022583591</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F17" t="n">
-        <v>441.8223902120467</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>558.6080202959273</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
-        <v>1075.450954962253</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M17" t="n">
-        <v>1075.450954962253</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N17" t="n">
-        <v>1075.450954962253</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>1592.293889628578</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P17" t="n">
-        <v>1726.536628995245</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S17" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y17" t="n">
-        <v>1687.317608428192</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L18" t="n">
-        <v>187.8810127971426</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M18" t="n">
-        <v>704.7239474634679</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N18" t="n">
-        <v>1221.566882129793</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O18" t="n">
-        <v>1221.566882129793</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1738.409816796118</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R18" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>362.1705454383725</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>362.1705454383725</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>202.6759007612826</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L19" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M19" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N19" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O19" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P19" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q19" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1385.623808837896</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U19" t="n">
-        <v>1102.825661384021</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V19" t="n">
-        <v>828.9399163235425</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W19" t="n">
-        <v>549.8702518324169</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X19" t="n">
-        <v>549.8702518324169</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y19" t="n">
-        <v>549.8702518324169</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2139.066799289355</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
         <v>2139.066799289355</v>
@@ -5747,7 +5749,7 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J20" t="n">
         <v>347.4291691583771</v>
@@ -5759,16 +5761,16 @@
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q20" t="n">
         <v>4621.628238841575</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4573.214074014467</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4351.007589961326</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4093.947098220835</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3744.109543557316</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X20" t="n">
-        <v>2950.224652005755</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y20" t="n">
-        <v>2549.287978953845</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>3084.569701873628</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>3958.227793985246</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>726.204233320165</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C22" t="n">
-        <v>726.204233320165</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D22" t="n">
-        <v>726.204233320165</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S22" t="n">
-        <v>1436.250826191383</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T22" t="n">
-        <v>1196.702087168085</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U22" t="n">
-        <v>913.9039397142094</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V22" t="n">
-        <v>913.9039397142094</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W22" t="n">
-        <v>913.9039397142094</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X22" t="n">
-        <v>913.9039397142094</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y22" t="n">
-        <v>913.9039397142094</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>899.2322418529996</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>601.6742641625859</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="C25" t="n">
-        <v>601.6742641625859</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="D25" t="n">
-        <v>601.6742641625859</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="E25" t="n">
-        <v>601.6742641625859</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="F25" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1383.093855288175</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1100.295707834299</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>826.4099627738212</v>
+        <v>3753.689586469008</v>
       </c>
       <c r="W25" t="n">
-        <v>826.4099627738212</v>
+        <v>3753.689586469008</v>
       </c>
       <c r="X25" t="n">
-        <v>826.4099627738212</v>
+        <v>3753.689586469008</v>
       </c>
       <c r="Y25" t="n">
-        <v>601.6742641625859</v>
+        <v>3753.689586469008</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F26" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G26" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I26" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6248,28 +6250,28 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U26" t="n">
-        <v>4405.12439279065</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V26" t="n">
-        <v>4144.752941388363</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="27">
@@ -6291,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6300,19 +6302,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N27" t="n">
         <v>1809.878870496807</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>4222.119838211427</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>4051.026465773144</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>3730.621005964373</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>3398.739489000508</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>3249.132033805964</v>
       </c>
       <c r="I28" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J28" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K28" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L28" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M28" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N28" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O28" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P28" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q28" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R28" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S28" t="n">
-        <v>1422.126287015057</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T28" t="n">
-        <v>1182.57754799176</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="U28" t="n">
-        <v>1182.57754799176</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="V28" t="n">
-        <v>1182.57754799176</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="W28" t="n">
-        <v>1182.57754799176</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="X28" t="n">
-        <v>1182.57754799176</v>
+        <v>4422.636145507842</v>
       </c>
       <c r="Y28" t="n">
-        <v>1182.57754799176</v>
+        <v>4409.819544605471</v>
       </c>
     </row>
     <row r="29">
@@ -6437,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2102.237727455812</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769081</v>
+        <v>1692.113136769082</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.572457336103</v>
+        <v>1287.649206862143</v>
       </c>
       <c r="E29" t="n">
         <v>899.2322418529996</v>
@@ -6458,10 +6460,10 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I29" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6482,31 +6484,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3314.038978003259</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>2913.395580172212</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2512.458907120302</v>
       </c>
     </row>
     <row r="30">
@@ -6528,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6537,19 +6539,19 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>936.2207783851895</v>
       </c>
       <c r="N30" t="n">
         <v>1809.878870496807</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="C31" t="n">
-        <v>4051.026465773143</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096053</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964372</v>
+        <v>3730.621005964373</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074963</v>
+        <v>3565.989880074964</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000507</v>
+        <v>3398.739489000508</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805963</v>
+        <v>3249.132033805964</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>3132.78598791029</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>3146.868537315501</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>3301.420865037739</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>3561.317965317799</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>3850.582021758292</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>4131.420804152543</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>4390.981414479017</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>4596.65685472863</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>4576.91216620654</v>
       </c>
       <c r="S31" t="n">
-        <v>4504.917985665302</v>
+        <v>4390.52039808645</v>
       </c>
       <c r="T31" t="n">
-        <v>4504.917985665302</v>
+        <v>4150.971659063152</v>
       </c>
       <c r="U31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="V31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="W31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="X31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
       <c r="Y31" t="n">
-        <v>4222.119838211426</v>
+        <v>3891.531821096054</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2139.066799289355</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
-        <v>179.5954603735497</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I32" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583772</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6719,31 +6721,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.90380932524</v>
+        <v>4526.903809325241</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.697325272099</v>
+        <v>4304.6973252721</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4047.63683353161</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3697.799278868091</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6765,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6774,28 +6776,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0499539559215</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="L33" t="n">
-        <v>549.0499539559215</v>
+        <v>286.0565552532561</v>
       </c>
       <c r="M33" t="n">
-        <v>1392.027034650488</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N33" t="n">
-        <v>2110.173374178493</v>
+        <v>2002.691728059441</v>
       </c>
       <c r="O33" t="n">
-        <v>2110.173374178493</v>
+        <v>2002.691728059441</v>
       </c>
       <c r="P33" t="n">
-        <v>2110.173374178493</v>
+        <v>2002.691728059441</v>
       </c>
       <c r="Q33" t="n">
         <v>2110.173374178493</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1182.57754799176</v>
+        <v>689.0651797120009</v>
       </c>
       <c r="C34" t="n">
-        <v>1011.484175553476</v>
+        <v>517.9718072737174</v>
       </c>
       <c r="D34" t="n">
-        <v>851.989530876386</v>
+        <v>358.4771625966275</v>
       </c>
       <c r="E34" t="n">
-        <v>691.0787157447054</v>
+        <v>197.5663474649469</v>
       </c>
       <c r="F34" t="n">
-        <v>526.4475898552967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G34" t="n">
-        <v>359.19719878084</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H34" t="n">
-        <v>209.5897435862967</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I34" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J34" t="n">
         <v>107.3262470958333</v>
@@ -6880,28 +6882,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W34" t="n">
-        <v>1350.978107866783</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.978107866783</v>
+        <v>1101.500584717281</v>
       </c>
       <c r="Y34" t="n">
-        <v>1350.978107866783</v>
+        <v>876.7648861060453</v>
       </c>
     </row>
     <row r="35">
@@ -6911,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2128.160977929772</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C35" t="n">
-        <v>1718.036387243042</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1313.572457336103</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
         <v>899.2322418529996</v>
@@ -6932,13 +6934,13 @@
         <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6956,31 +6958,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841575</v>
+        <v>4621.628238841576</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.18488453114</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="S35" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="T35" t="n">
-        <v>4330.62057574606</v>
+        <v>4662.184884531141</v>
       </c>
       <c r="U35" t="n">
-        <v>4073.56008400557</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V35" t="n">
-        <v>3723.722529342051</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W35" t="n">
-        <v>3339.962228477219</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X35" t="n">
-        <v>2939.318830646172</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y35" t="n">
-        <v>2538.382157594262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="36">
@@ -7002,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203278</v>
+        <v>291.7296147203279</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7011,31 +7013,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>592.7987223006619</v>
       </c>
       <c r="M36" t="n">
-        <v>1548.467481689963</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="N36" t="n">
-        <v>1548.467481689963</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O36" t="n">
-        <v>1548.467481689963</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q36" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>749.3736558270855</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>578.280283388802</v>
       </c>
       <c r="D37" t="n">
-        <v>93.2436976906228</v>
+        <v>418.7856387117121</v>
       </c>
       <c r="E37" t="n">
-        <v>93.2436976906228</v>
+        <v>257.8748235800315</v>
       </c>
       <c r="F37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="G37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="H37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="I37" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062281</v>
       </c>
       <c r="J37" t="n">
         <v>107.3262470958333</v>
@@ -7129,16 +7131,16 @@
         <v>1622.642594311473</v>
       </c>
       <c r="V37" t="n">
-        <v>1353.680646442718</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W37" t="n">
-        <v>1074.610981951593</v>
+        <v>1400.152922972682</v>
       </c>
       <c r="X37" t="n">
-        <v>836.267119811276</v>
+        <v>1161.809060832365</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.5314212000407</v>
+        <v>937.0733622211299</v>
       </c>
     </row>
     <row r="38">
@@ -7148,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2102.237727455811</v>
+        <v>2324.444211508952</v>
       </c>
       <c r="C38" t="n">
-        <v>1692.113136769081</v>
+        <v>1914.319620822223</v>
       </c>
       <c r="D38" t="n">
-        <v>1692.113136769081</v>
+        <v>1509.855690915283</v>
       </c>
       <c r="E38" t="n">
-        <v>1277.772921285978</v>
+        <v>1095.51547543218</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>674.4850633858673</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>265.7567792786995</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I38" t="n">
-        <v>93.2436976906228</v>
+        <v>93.24369769062287</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674167</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.498661071408</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710027</v>
+        <v>3127.679677710026</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046283</v>
+        <v>4300.467232046282</v>
       </c>
       <c r="Q38" t="n">
         <v>4621.628238841575</v>
@@ -7202,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U38" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V38" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W38" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X38" t="n">
-        <v>2913.395580172211</v>
+        <v>3135.602064225352</v>
       </c>
       <c r="Y38" t="n">
-        <v>2512.458907120301</v>
+        <v>2734.665391173442</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>772.0745395771571</v>
+        <v>3294.526530567174</v>
       </c>
       <c r="C39" t="n">
-        <v>638.0794683261029</v>
+        <v>3160.531459316119</v>
       </c>
       <c r="D39" t="n">
-        <v>521.1823105454953</v>
+        <v>3043.634301535512</v>
       </c>
       <c r="E39" t="n">
-        <v>400.6894945378233</v>
+        <v>2923.14148552784</v>
       </c>
       <c r="F39" t="n">
-        <v>291.7296147203278</v>
+        <v>2814.181605710345</v>
       </c>
       <c r="G39" t="n">
-        <v>184.7395020346666</v>
+        <v>2707.191493024683</v>
       </c>
       <c r="H39" t="n">
-        <v>113.9922890703826</v>
+        <v>2636.4442800604</v>
       </c>
       <c r="I39" t="n">
-        <v>93.2436976906228</v>
+        <v>2615.69568868064</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>2808.508546243273</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>3264.314802508572</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="M39" t="n">
-        <v>936.2207783851894</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>3721.075007995997</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>4282.780900484527</v>
       </c>
       <c r="Q39" t="n">
-        <v>2139.732893541123</v>
+        <v>4632.62536516851</v>
       </c>
       <c r="R39" t="n">
-        <v>2139.732893541123</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S39" t="n">
-        <v>2031.742883655432</v>
+        <v>4554.194874645448</v>
       </c>
       <c r="T39" t="n">
-        <v>1872.40101984244</v>
+        <v>4394.853010832457</v>
       </c>
       <c r="U39" t="n">
-        <v>1675.050208980659</v>
+        <v>4197.502199970675</v>
       </c>
       <c r="V39" t="n">
-        <v>1461.338681973692</v>
+        <v>3983.790672963709</v>
       </c>
       <c r="W39" t="n">
-        <v>1248.105513710021</v>
+        <v>3770.557504700037</v>
       </c>
       <c r="X39" t="n">
-        <v>1071.779531848914</v>
+        <v>3594.23152283893</v>
       </c>
       <c r="Y39" t="n">
-        <v>912.3775722127438</v>
+        <v>3434.82956320276</v>
       </c>
     </row>
     <row r="40">
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>649.6473156351464</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="C40" t="n">
-        <v>649.6473156351464</v>
+        <v>932.9308183587659</v>
       </c>
       <c r="D40" t="n">
-        <v>649.6473156351464</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E40" t="n">
-        <v>649.6473156351464</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
         <v>526.4475898552967</v>
@@ -7357,25 +7359,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1153.452678737507</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="V40" t="n">
-        <v>1153.452678737507</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="W40" t="n">
-        <v>874.3830142463817</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="X40" t="n">
-        <v>874.3830142463817</v>
+        <v>1104.024190797049</v>
       </c>
       <c r="Y40" t="n">
-        <v>649.6473156351464</v>
+        <v>1104.024190797049</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C41" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D41" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E41" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F41" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G41" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H41" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7436,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T41" t="n">
-        <v>4304.697325272099</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U41" t="n">
-        <v>4304.697325272099</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V41" t="n">
-        <v>3954.85977060858</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W41" t="n">
-        <v>3760.992640523532</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X41" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y41" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7490,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J42" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L42" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M42" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N42" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O42" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P42" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q42" t="n">
         <v>2139.732893541123</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>590.2873592492926</v>
+        <v>3732.335952894417</v>
       </c>
       <c r="C43" t="n">
-        <v>590.2873592492926</v>
+        <v>3561.242580456134</v>
       </c>
       <c r="D43" t="n">
-        <v>590.2873592492926</v>
+        <v>3401.747935779044</v>
       </c>
       <c r="E43" t="n">
-        <v>429.3765441176121</v>
+        <v>3240.837120647363</v>
       </c>
       <c r="F43" t="n">
-        <v>264.7454182282034</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G43" t="n">
-        <v>97.4950271537468</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I43" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J43" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K43" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L43" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M43" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N43" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O43" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P43" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R43" t="n">
-        <v>1537.369875986873</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S43" t="n">
-        <v>1350.978107866783</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T43" t="n">
-        <v>1111.429368843485</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U43" t="n">
-        <v>828.6312213896092</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V43" t="n">
-        <v>828.6312213896092</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="W43" t="n">
-        <v>828.6312213896092</v>
+        <v>4383.115220040014</v>
       </c>
       <c r="X43" t="n">
-        <v>590.2873592492926</v>
+        <v>4144.771357899697</v>
       </c>
       <c r="Y43" t="n">
-        <v>590.2873592492926</v>
+        <v>3920.035659288462</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1328.195547152093</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C44" t="n">
-        <v>918.0709564653636</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D44" t="n">
-        <v>513.6070265584241</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E44" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F44" t="n">
-        <v>450.4933697367699</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960205</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960205</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J44" t="n">
-        <v>41.76508562960205</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K44" t="n">
-        <v>41.76508562960205</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L44" t="n">
-        <v>497.1688317915616</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M44" t="n">
-        <v>1014.011766457887</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N44" t="n">
-        <v>1530.854701124212</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O44" t="n">
-        <v>2047.697635790537</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P44" t="n">
-        <v>2047.697635790537</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q44" t="n">
-        <v>2047.697635790537</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R44" t="n">
-        <v>2088.254281480102</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S44" t="n">
-        <v>2088.254281480102</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T44" t="n">
-        <v>2088.254281480102</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U44" t="n">
-        <v>2088.254281480102</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V44" t="n">
-        <v>1738.416726816583</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W44" t="n">
-        <v>1738.416726816583</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X44" t="n">
-        <v>1738.416726816583</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>1738.416726816583</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>720.5959275161366</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C45" t="n">
-        <v>586.6008562650824</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D45" t="n">
-        <v>469.7036984844747</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E45" t="n">
-        <v>349.2108824768027</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F45" t="n">
-        <v>240.2510026593072</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G45" t="n">
-        <v>133.260889973646</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H45" t="n">
-        <v>62.51367700936203</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959273</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N45" t="n">
-        <v>1054.568412147452</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O45" t="n">
-        <v>1571.411346813777</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R45" t="n">
-        <v>2088.254281480102</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S45" t="n">
-        <v>1980.264271594411</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T45" t="n">
-        <v>1820.922407781419</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U45" t="n">
-        <v>1623.571596919638</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V45" t="n">
-        <v>1409.860069912672</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W45" t="n">
-        <v>1196.626901649001</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X45" t="n">
-        <v>1020.300919787893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y45" t="n">
-        <v>860.8989601517233</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E46" t="n">
-        <v>639.6001036836846</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F46" t="n">
-        <v>474.9689777942758</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G46" t="n">
-        <v>307.7185867198193</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H46" t="n">
-        <v>158.1111315252759</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960205</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481257</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570506</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L46" t="n">
-        <v>470.2970630371111</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M46" t="n">
-        <v>759.5611194776044</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N46" t="n">
-        <v>1040.399901871855</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O46" t="n">
-        <v>1299.960512198329</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P46" t="n">
-        <v>1505.635952447941</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q46" t="n">
-        <v>1571.163982250452</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R46" t="n">
-        <v>1485.891263925851</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S46" t="n">
-        <v>1299.499495805762</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1059.950756782464</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U46" t="n">
-        <v>777.1526093285881</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V46" t="n">
-        <v>777.1526093285881</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W46" t="n">
-        <v>777.1526093285881</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X46" t="n">
-        <v>777.1526093285881</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y46" t="n">
-        <v>777.1526093285881</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>490.0456851936598</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>593.882383535937</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8061,19 +8063,19 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>72.04887768380517</v>
       </c>
       <c r="N3" t="n">
-        <v>67.67798733913797</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>594.2603172363629</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O5" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>87.31214281472352</v>
@@ -8295,22 +8297,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L6" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>263.5046911326696</v>
+        <v>201.8514806265823</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N8" t="n">
-        <v>493.8215862770622</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P8" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,7 +8531,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K9" t="n">
         <v>516.2361426485535</v>
@@ -8538,16 +8540,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>564.2543476875383</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>53.19339339374999</v>
+        <v>232.580349157323</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q9" t="n">
         <v>410.0708656603775</v>
@@ -8690,28 +8692,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M11" t="n">
-        <v>535.1658287548266</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958087</v>
+        <v>296.4405581451822</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8769,28 +8771,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K12" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>557.0846165901664</v>
       </c>
       <c r="M12" t="n">
-        <v>236.9512395019904</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q12" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8930,16 +8932,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051008</v>
+        <v>594.1598684051006</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -9003,28 +9005,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>203.4176284083937</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M15" t="n">
-        <v>57.56428373841742</v>
+        <v>363.7739143332569</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q15" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R15" t="n">
         <v>59.00019910540541</v>
@@ -9161,25 +9163,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432426</v>
+        <v>632.7318453389137</v>
       </c>
       <c r="L17" t="n">
-        <v>617.5489684328704</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N17" t="n">
-        <v>92.91229075661933</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P17" t="n">
-        <v>229.2480899138817</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
         <v>414.4388617681339</v>
@@ -9246,22 +9248,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L18" t="n">
-        <v>203.7063694346274</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637755</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9486,13 +9488,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
         <v>54.25963500280375</v>
@@ -9714,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9896,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920627</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>330.0765928158882</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10364,7 +10366,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q32" t="n">
         <v>414.4388617681339</v>
@@ -10425,10 +10427,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,7 +10439,7 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>778.5937363513306</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
         <v>57.751479</v>
@@ -10446,7 +10448,7 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>165.2599378170126</v>
       </c>
       <c r="R33" t="n">
         <v>88.85829947169823</v>
@@ -10586,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L35" t="n">
         <v>815.2746908024792</v>
@@ -10668,25 +10670,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>560.7155587704844</v>
       </c>
       <c r="M36" t="n">
-        <v>859.7214676576617</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N36" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10838,7 +10840,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P38" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q38" t="n">
         <v>414.4388617681339</v>
@@ -10899,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476421</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11075,7 +11077,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>628.1510783507342</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>339.7023577301357</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N42" t="n">
-        <v>557.7944283533855</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>555.4891820648243</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270711</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>614.9758611266449</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
-        <v>615.2533459958087</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>128.2784515920617</v>
@@ -11382,16 +11384,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>579.627854108443</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>554.1634861730678</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700256</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P45" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
         <v>56.69261850483872</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>246.7689623225637</v>
+        <v>111.3960752911889</v>
       </c>
       <c r="C2" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22595,25 +22597,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>208.6070786176243</v>
+        <v>214.6543374933686</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22781,22 +22783,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -22838,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>236.6831671602275</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>390.2983828659825</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,10 +22941,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -22951,13 +22953,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -22987,25 +22989,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>101.160601801189</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,13 +23020,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -23036,7 +23038,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
         <v>85.48824505609757</v>
@@ -23075,7 +23077,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>168.3422084577368</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -23185,19 +23187,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,16 +23226,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>122.7421248741675</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
@@ -23242,7 +23244,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>93.42449318090684</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,19 +23266,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>10.06223633122448</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>211.6595330684707</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23413,22 +23415,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>19.106155053831</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>82.68617307340644</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
         <v>235.9604235189134</v>
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>237.76035048854</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23501,16 +23503,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>233.820870445283</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
         <v>85.48824505609757</v>
@@ -23546,22 +23548,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>57.06664624006523</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>8.893130557884689</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,13 +23746,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>8.58426972947592</v>
+        <v>308.5558614412301</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23783,19 +23785,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23887,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>137.8884710959894</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23969,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>45.84716204233405</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>36.46078111520842</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24124,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24133,19 +24135,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>124.5274445806587</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,13 +24186,13 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y22" t="n">
         <v>222.4883416251229</v>
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24373,7 +24375,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>88.51040706629827</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>157.8078017210091</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -24430,7 +24432,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24461,7 +24463,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24497,10 +24499,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>3.083197172522006</v>
       </c>
       <c r="V26" t="n">
-        <v>88.57144222862024</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S28" t="n">
-        <v>70.43669735679185</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>209.7999067317759</v>
       </c>
     </row>
     <row r="29">
@@ -24683,10 +24685,10 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>25.66401796922128</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>25.66401796922042</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -24838,10 +24840,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>113.253611703064</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V31" t="n">
         <v>271.1468876098733</v>
@@ -24914,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>36.46078111520819</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24977,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>356.995880838972</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.10615505383078</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>59.70539135393376</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -25138,10 +25140,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25202,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>25.66401796922159</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>88.57144222861891</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25318,10 +25320,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.577887163712</v>
@@ -25369,10 +25371,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>4.874559219806031</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>56.01419322081091</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25394,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>42.06483528720054</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>222.4997066824609</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25442,7 +25444,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25549,16 +25551,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>77.76782362276293</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>41.01708610846346</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25597,13 +25599,13 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
         <v>271.1468876098733</v>
@@ -25615,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>56.01419322081128</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>143.9025644741051</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
         <v>115.1825854367171</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25871,7 +25873,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>347.7142930748346</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -25880,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26029,19 +26031,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>23.12472639190918</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>523787.9362221641</v>
+        <v>523787.936222164</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523787.936222164</v>
+        <v>523787.9362221639</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>523787.9362221641</v>
+        <v>523787.936222164</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>523787.936222164</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797513.0854421661</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421662</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797513.0854421662</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797513.0854421662</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421665</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421661</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797513.0854421662</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>523787.936222164</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180746.0634768</v>
+        <v>180746.0634768001</v>
       </c>
       <c r="C2" t="n">
         <v>180746.0634767999</v>
@@ -26326,16 +26328,16 @@
         <v>180746.0634767999</v>
       </c>
       <c r="G2" t="n">
-        <v>180746.0634767999</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="H2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="I2" t="n">
         <v>275166.2341583392</v>
       </c>
       <c r="J2" t="n">
-        <v>275166.2341583392</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="K2" t="n">
         <v>275166.2341583392</v>
@@ -26344,7 +26346,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
-        <v>275166.2341583391</v>
+        <v>275166.2341583393</v>
       </c>
       <c r="N2" t="n">
         <v>275166.2341583392</v>
@@ -26353,7 +26355,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="P2" t="n">
-        <v>180746.0634767999</v>
+        <v>275166.2341583392</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>176368.942334311</v>
       </c>
       <c r="H3" t="n">
-        <v>173617.4105196494</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>154854.7433887088</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.35498003942</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="D4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.3549800394</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="G4" t="n">
-        <v>39061.35498003941</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782199</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="M4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="N4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="O4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
-        <v>39061.35498003942</v>
+        <v>59647.11115782197</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26482,7 +26484,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="G5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="H5" t="n">
         <v>70865.21024487332</v>
@@ -26491,16 +26493,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="M5" t="n">
-        <v>70865.21024487332</v>
+        <v>70865.21024487333</v>
       </c>
       <c r="N5" t="n">
         <v>70865.21024487332</v>
@@ -26509,7 +26511,7 @@
         <v>70865.21024487332</v>
       </c>
       <c r="P5" t="n">
-        <v>31741.46507849755</v>
+        <v>70865.21024487332</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98639.86647485108</v>
+        <v>-98639.86647485089</v>
       </c>
       <c r="C6" t="n">
+        <v>76315.64341826295</v>
+      </c>
+      <c r="D6" t="n">
         <v>76315.64341826292</v>
-      </c>
-      <c r="D6" t="n">
-        <v>76315.64341826295</v>
       </c>
       <c r="E6" t="n">
         <v>109943.243418263</v>
@@ -26534,34 +26536,34 @@
         <v>109943.2434182629</v>
       </c>
       <c r="G6" t="n">
-        <v>109943.2434182629</v>
+        <v>-31715.02957866702</v>
       </c>
       <c r="H6" t="n">
-        <v>-28963.49776400557</v>
+        <v>144653.9127556439</v>
       </c>
       <c r="I6" t="n">
+        <v>144653.9127556439</v>
+      </c>
+      <c r="J6" t="n">
+        <v>8059.111949748942</v>
+      </c>
+      <c r="K6" t="n">
+        <v>144653.9127556439</v>
+      </c>
+      <c r="L6" t="n">
         <v>144653.9127556438</v>
       </c>
-      <c r="J6" t="n">
-        <v>8059.111949748869</v>
-      </c>
-      <c r="K6" t="n">
-        <v>144653.9127556438</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>144653.9127556439</v>
-      </c>
-      <c r="M6" t="n">
-        <v>144653.9127556438</v>
       </c>
       <c r="N6" t="n">
         <v>144653.9127556439</v>
       </c>
       <c r="O6" t="n">
+        <v>-10200.83063306496</v>
+      </c>
+      <c r="P6" t="n">
         <v>144653.9127556439</v>
-      </c>
-      <c r="P6" t="n">
-        <v>109943.2434182629</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26789,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
       <c r="H4" t="n">
         <v>1165.546221132785</v>
@@ -26829,7 +26831,7 @@
         <v>1165.546221132785</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700256</v>
+        <v>1165.546221132785</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="H4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700257</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27048,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>643.4826507627595</v>
       </c>
       <c r="P4" t="n">
-        <v>643.4826507627594</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204426</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>500.9700927793177</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34781,19 +34783,19 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="N3" t="n">
-        <v>14.48459394538798</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O5" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>209.2450561298658</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N8" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>460.4103598639381</v>
@@ -35258,16 +35260,16 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>179.386955763573</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q9" t="n">
         <v>353.3782471555388</v>
@@ -35410,28 +35412,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M11" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,28 +35491,28 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="M12" t="n">
-        <v>179.3869557635729</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35650,16 +35652,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793177</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>147.5918456237783</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>306.2096305948394</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q15" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,25 +35883,25 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700256</v>
+        <v>543.5954556656966</v>
       </c>
       <c r="L17" t="n">
-        <v>522.0635703700256</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P17" t="n">
-        <v>135.5987266329976</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
         <v>324.4050573689818</v>
@@ -35966,22 +35968,22 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>147.5918456237783</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700256</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36206,13 +36208,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36616,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733921</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825801</v>
+        <v>256.7530014825803</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37084,7 +37086,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P32" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q32" t="n">
         <v>324.4050573689818</v>
@@ -37145,10 +37147,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,7 +37159,7 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4003429575806</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>108.5673193121739</v>
       </c>
       <c r="R33" t="n">
         <v>29.85810036629282</v>
@@ -37306,7 +37308,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L35" t="n">
         <v>719.7892927396343</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="M36" t="n">
-        <v>802.1571839192443</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37558,7 +37560,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P38" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q38" t="n">
         <v>324.4050573689818</v>
@@ -37619,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>461.373944936793</v>
       </c>
       <c r="M39" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37797,7 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>534.5017150698501</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>283.8765749455203</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>460.0037840019794</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700256</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>522.0635703700256</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
-        <v>522.0635703700256</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>40.9663087773382</v>
@@ -38102,16 +38104,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700256</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>500.9700927793178</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700256</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P45" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>611502.3725048816</v>
+        <v>607409.5014885906</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6750972.622617711</v>
+        <v>6750972.622617706</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.7228925766556</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,10 +670,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -712,19 +712,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>258.4926175985022</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -882,10 +882,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>21.30608602554484</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -898,13 +898,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>6.338580986754437</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>285.2408885615485</v>
       </c>
     </row>
     <row r="6">
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="8">
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388.3430365919143</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9360997141162</v>
       </c>
       <c r="G8" t="n">
         <v>404.6410012660961</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1290,25 +1290,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1344,22 +1344,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>142.5359303380066</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="11">
@@ -1372,13 +1372,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>8.324886144139104</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>260.0188263100671</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>166.7165542762729</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
@@ -1584,19 +1584,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>149.3012710824526</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>168.3586173793045</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1672,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>254.4147721380745</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>96.08513982486603</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1900,13 +1900,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>325.8567232380378</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2070,7 +2070,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>88.08110241150609</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2146,7 +2146,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2304,10 +2304,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>170.7879507721958</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -2535,16 +2535,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>113.3390858888641</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>29.06736062834964</v>
       </c>
     </row>
     <row r="26">
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.406689650563</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>12.68843489334703</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2800,19 +2800,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>384.5327953590518</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,7 +2851,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
-        <v>346.3391791168841</v>
+        <v>297.1427106764702</v>
       </c>
       <c r="W29" t="n">
         <v>379.9226978561831</v>
@@ -2958,19 +2958,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>256.8454395874278</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3031,7 +3031,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>400.41929060787</v>
@@ -3049,7 +3049,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>49.02746394088949</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3091,7 +3091,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
-        <v>22.92681701721112</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
         <v>396.636963852737</v>
@@ -3189,16 +3189,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>103.2794232765809</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>93.86998482510118</v>
       </c>
       <c r="U34" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>356.8268763394486</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3283,10 +3283,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>165.9184445944661</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3426,19 +3426,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>153.138492427579</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>220.2647746254034</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>85.29970571609826</v>
+        <v>84.73179601342665</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
         <v>254.489886823085</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>80.13187460755614</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.4066896505621</v>
+        <v>31.99018014062471</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3897,19 +3897,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>106.9706214097034</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,13 +3982,13 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>384.5327953590509</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4045,7 +4045,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>354.8624710341901</v>
       </c>
     </row>
     <row r="45">
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4203,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.76508562960203</v>
+        <v>1281.648372469812</v>
       </c>
       <c r="C2" t="n">
-        <v>41.76508562960203</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960203</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960203</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>692.8507596625946</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="L2" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="M2" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="N2" t="n">
-        <v>1209.69369432892</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O2" t="n">
         <v>1209.69369432892</v>
@@ -4360,22 +4360,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>1730.766722221061</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>1473.706230480572</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V2" t="n">
-        <v>1123.868675817052</v>
+        <v>1691.869552134302</v>
       </c>
       <c r="W2" t="n">
-        <v>740.1083749522209</v>
+        <v>1691.869552134302</v>
       </c>
       <c r="X2" t="n">
-        <v>339.4649771211734</v>
+        <v>1691.869552134302</v>
       </c>
       <c r="Y2" t="n">
-        <v>339.4649771211734</v>
+        <v>1691.869552134302</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>690.384199457534</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>1207.227134123859</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M3" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N3" t="n">
-        <v>1221.566882129793</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O3" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q3" t="n">
         <v>2088.254281480102</v>
@@ -4445,16 +4445,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>202.6759007612825</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.6759007612825</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.693821706375</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C5" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>1054.568412147451</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>1571.411346813777</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X5" t="n">
-        <v>2081.851674422774</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.915001370864</v>
+        <v>451.9862652940915</v>
       </c>
     </row>
     <row r="6">
@@ -4643,28 +4643,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>41.76508562960204</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M6" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N6" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
         <v>2088.254281480102</v>
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U7" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V7" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W7" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X7" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.988587952916</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.863997266186</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>919.6088695046626</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L8" t="n">
-        <v>558.6080202959272</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M8" t="n">
-        <v>1075.450954962252</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="N8" t="n">
-        <v>1592.293889628578</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="O8" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
         <v>2088.254281480102</v>
@@ -4831,25 +4831,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1329.830049169152</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L9" t="n">
-        <v>497.5713418949007</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M9" t="n">
-        <v>497.5713418949007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N9" t="n">
-        <v>675.164428100838</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O9" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1014.752890035065</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C10" t="n">
-        <v>843.6595175967811</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D10" t="n">
-        <v>684.1648729196911</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E10" t="n">
-        <v>523.2540577880106</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F10" t="n">
-        <v>358.622931898602</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G10" t="n">
-        <v>191.3725408241454</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4992,22 +4992,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U10" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V10" t="n">
-        <v>1571.163982250452</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W10" t="n">
-        <v>1571.163982250452</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X10" t="n">
-        <v>1427.188295040344</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1202.452596429109</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1678.908632525021</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="C11" t="n">
-        <v>1268.784041838291</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="D11" t="n">
-        <v>1268.784041838291</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E11" t="n">
-        <v>1268.784041838291</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F11" t="n">
-        <v>847.7536297919787</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G11" t="n">
-        <v>439.0253456848109</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H11" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636815</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="L11" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="M11" t="n">
-        <v>1846.479361096332</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N11" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S11" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T11" t="n">
-        <v>2079.845305576931</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U11" t="n">
-        <v>2079.845305576931</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V11" t="n">
-        <v>2079.845305576931</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W11" t="n">
-        <v>2079.845305576931</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X11" t="n">
-        <v>2079.845305576931</v>
+        <v>1690.327927173125</v>
       </c>
       <c r="Y11" t="n">
-        <v>1678.908632525021</v>
+        <v>1690.327927173125</v>
       </c>
     </row>
     <row r="12">
@@ -5096,46 +5096,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>537.7254774811263</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M12" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N12" t="n">
+        <v>1054.568412147452</v>
+      </c>
+      <c r="O12" t="n">
         <v>1571.411346813777</v>
-      </c>
-      <c r="O12" t="n">
-        <v>2088.254281480102</v>
       </c>
       <c r="P12" t="n">
         <v>2088.254281480102</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1131.098935930739</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="C13" t="n">
-        <v>960.0055634924552</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="D13" t="n">
-        <v>800.5109188153651</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="E13" t="n">
-        <v>639.6001036836846</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F13" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G13" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T13" t="n">
-        <v>1299.499495805762</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U13" t="n">
-        <v>1299.499495805762</v>
+        <v>1101.974066676486</v>
       </c>
       <c r="V13" t="n">
-        <v>1299.499495805762</v>
+        <v>951.1647019467362</v>
       </c>
       <c r="W13" t="n">
-        <v>1299.499495805762</v>
+        <v>672.0950374556105</v>
       </c>
       <c r="X13" t="n">
-        <v>1299.499495805762</v>
+        <v>433.7511753152939</v>
       </c>
       <c r="Y13" t="n">
-        <v>1299.499495805762</v>
+        <v>209.0154767040586</v>
       </c>
     </row>
     <row r="14">
@@ -5269,34 +5269,34 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M14" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N14" t="n">
-        <v>1592.293889628578</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O14" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P14" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q14" t="n">
         <v>2088.254281480102</v>
@@ -5305,25 +5305,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U14" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V14" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W14" t="n">
-        <v>1866.047797426961</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X14" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="Y14" t="n">
-        <v>1866.047797426961</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="15">
@@ -5351,19 +5351,19 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>234.5779431922353</v>
+        <v>537.7254774811262</v>
       </c>
       <c r="L15" t="n">
-        <v>751.4208778585604</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M15" t="n">
         <v>1054.568412147451</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1131.098935930739</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5460,28 +5460,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R16" t="n">
-        <v>1543.534340936018</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S16" t="n">
-        <v>1543.534340936018</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T16" t="n">
-        <v>1543.534340936018</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U16" t="n">
-        <v>1543.534340936018</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V16" t="n">
-        <v>1543.534340936018</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W16" t="n">
-        <v>1543.534340936018</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X16" t="n">
-        <v>1543.534340936018</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y16" t="n">
-        <v>1318.798642324783</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2237.518802661711</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1827.394211974981</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1422.930282068041</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>1008.590066584938</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>587.5596545386256</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,19 +5548,19 @@
         <v>4439.978400477999</v>
       </c>
       <c r="U17" t="n">
-        <v>4182.917908737509</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V17" t="n">
-        <v>3833.080354073989</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W17" t="n">
-        <v>3449.320053209158</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X17" t="n">
-        <v>3048.67665537811</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.7399823262</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5703,19 +5703,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
         <v>93.2436976906228</v>
@@ -5728,49 +5728,49 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2549.191389976085</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C20" t="n">
-        <v>2139.066799289355</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D20" t="n">
-        <v>1734.602869382415</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>1320.262653899312</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N20" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O20" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P20" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q20" t="n">
         <v>4621.628238841575</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4573.214074014467</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T20" t="n">
-        <v>4351.007589961326</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U20" t="n">
-        <v>4093.947098220835</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V20" t="n">
-        <v>3744.109543557316</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W20" t="n">
-        <v>3360.349242692484</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X20" t="n">
-        <v>3360.349242692484</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y20" t="n">
-        <v>2959.412569640574</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>3594.287766548796</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>3315.218102057671</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3132.785987910289</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6074,16 +6074,16 @@
         <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>1228.182536368609</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.182536368609</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N24" t="n">
-        <v>1228.182536368609</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O24" t="n">
-        <v>1228.182536368609</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P24" t="n">
         <v>1789.888428857139</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V25" t="n">
-        <v>3753.689586469008</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W25" t="n">
-        <v>3753.689586469008</v>
+        <v>360.9485301626057</v>
       </c>
       <c r="X25" t="n">
-        <v>3753.689586469008</v>
+        <v>122.6046680222891</v>
       </c>
       <c r="Y25" t="n">
-        <v>3753.689586469008</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6220,16 +6220,16 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H26" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I26" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L26" t="n">
         <v>1598.180070079655</v>
@@ -6250,13 +6250,13 @@
         <v>4621.628238841575</v>
       </c>
       <c r="R26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T26" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U26" t="n">
         <v>4408.238733368956</v>
@@ -6293,7 +6293,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
         <v>184.7395020346666</v>
@@ -6302,22 +6302,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L27" t="n">
-        <v>93.24369769062281</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851895</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O27" t="n">
         <v>2139.732893541123</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4222.119838211427</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>4051.026465773144</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>3891.531821096054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>3730.621005964373</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>3565.989880074964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>3398.739489000508</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>3249.132033805964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4422.636145507842</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>4422.636145507842</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>4422.636145507842</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>4422.636145507842</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>4422.636145507842</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>4409.819544605471</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,31 +6439,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455812</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C29" t="n">
-        <v>1692.113136769082</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D29" t="n">
-        <v>1287.649206862143</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E29" t="n">
-        <v>899.2322418529996</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H29" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I29" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J29" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K29" t="n">
         <v>885.5886702674165</v>
@@ -6484,31 +6484,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q29" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R29" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>3697.799278868091</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003259</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172212</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120302</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="30">
@@ -6530,7 +6530,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F30" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G30" t="n">
         <v>184.7395020346666</v>
@@ -6539,22 +6539,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I30" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>93.24369769062281</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851895</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3891.531821096054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3891.531821096054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3891.531821096054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3730.621005964373</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3565.989880074964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3398.739489000508</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3249.132033805964</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.78598791029</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.868537315501</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037739</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317799</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758292</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152543</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479017</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.65685472863</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.184884531141</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.91216620654</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.52039808645</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063152</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3891.531821096054</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3891.531821096054</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3891.531821096054</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3891.531821096054</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3891.531821096054</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2462.839627293158</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C32" t="n">
-        <v>2052.715036606428</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.251106699488</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E32" t="n">
-        <v>1233.910891216385</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F32" t="n">
-        <v>812.8804791700727</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G32" t="n">
-        <v>404.1521950629048</v>
+        <v>453.6748859122881</v>
       </c>
       <c r="H32" t="n">
-        <v>93.24369769062281</v>
+        <v>142.7663885400061</v>
       </c>
       <c r="I32" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J32" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K32" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L32" t="n">
         <v>1598.180070079655</v>
@@ -6721,31 +6721,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q32" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R32" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S32" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T32" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W32" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X32" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="33">
@@ -6767,7 +6767,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F33" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G33" t="n">
         <v>184.7395020346666</v>
@@ -6776,31 +6776,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I33" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>286.0565552532561</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>286.0565552532561</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L33" t="n">
-        <v>286.0565552532561</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="M33" t="n">
-        <v>1129.033635947823</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N33" t="n">
-        <v>2002.691728059441</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O33" t="n">
-        <v>2002.691728059441</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>2002.691728059441</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
-        <v>2110.173374178493</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R33" t="n">
         <v>2139.732893541123</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>689.0651797120009</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>517.9718072737174</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
-        <v>358.4771625966275</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>197.5663474649469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
         <v>107.3262470958333</v>
@@ -6885,25 +6885,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1341.432659701382</v>
       </c>
       <c r="U34" t="n">
-        <v>1339.844446857597</v>
+        <v>1058.634512247506</v>
       </c>
       <c r="V34" t="n">
-        <v>1339.844446857597</v>
+        <v>784.7487671870281</v>
       </c>
       <c r="W34" t="n">
-        <v>1339.844446857597</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="X34" t="n">
-        <v>1101.500584717281</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y34" t="n">
-        <v>876.7648861060453</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="35">
@@ -6913,31 +6913,31 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H35" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I35" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6958,31 +6958,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q35" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R35" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.184884531141</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.184884531141</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7004,7 +7004,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F36" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G36" t="n">
         <v>184.7395020346666</v>
@@ -7013,28 +7013,28 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I36" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>592.7987223006619</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M36" t="n">
-        <v>1435.775802995229</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="N36" t="n">
-        <v>1435.775802995229</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>1584.839892213121</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q36" t="n">
         <v>2139.732893541123</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>749.3736558270855</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C37" t="n">
-        <v>578.280283388802</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D37" t="n">
-        <v>418.7856387117121</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E37" t="n">
-        <v>257.8748235800315</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F37" t="n">
-        <v>93.24369769062281</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G37" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J37" t="n">
         <v>107.3262470958333</v>
@@ -7125,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1467.95724842503</v>
       </c>
       <c r="U37" t="n">
-        <v>1622.642594311473</v>
+        <v>1185.159100971154</v>
       </c>
       <c r="V37" t="n">
-        <v>1622.642594311473</v>
+        <v>911.2733559106757</v>
       </c>
       <c r="W37" t="n">
-        <v>1400.152922972682</v>
+        <v>911.2733559106757</v>
       </c>
       <c r="X37" t="n">
-        <v>1161.809060832365</v>
+        <v>672.929493770359</v>
       </c>
       <c r="Y37" t="n">
-        <v>937.0733622211299</v>
+        <v>448.1937951591237</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2324.444211508952</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
-        <v>1914.319620822223</v>
+        <v>1827.394211974981</v>
       </c>
       <c r="D38" t="n">
-        <v>1509.855690915283</v>
+        <v>1422.930282068041</v>
       </c>
       <c r="E38" t="n">
-        <v>1095.51547543218</v>
+        <v>1008.590066584938</v>
       </c>
       <c r="F38" t="n">
-        <v>674.4850633858673</v>
+        <v>587.5596545386256</v>
       </c>
       <c r="G38" t="n">
-        <v>265.7567792786995</v>
+        <v>178.8313704314578</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
-        <v>93.24369769062287</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
         <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674167</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M38" t="n">
-        <v>2374.498661071408</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N38" t="n">
-        <v>3127.679677710026</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O38" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P38" t="n">
-        <v>4300.467232046282</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q38" t="n">
         <v>4621.628238841575</v>
@@ -7201,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4526.90380932524</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4269.84331758475</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>3920.005762921231</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3536.245462056399</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3135.602064225352</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2734.665391173442</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C39" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D39" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E39" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F39" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G39" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H39" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I39" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>2808.508546243273</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>3264.314802508572</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M39" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N39" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O39" t="n">
-        <v>3721.075007995997</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P39" t="n">
-        <v>4282.780900484527</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
-        <v>4632.62536516851</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R39" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S39" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T39" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U39" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V39" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W39" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X39" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y39" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1104.024190797049</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C40" t="n">
-        <v>932.9308183587659</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D40" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7365,19 +7365,19 @@
         <v>1383.093855288175</v>
       </c>
       <c r="U40" t="n">
-        <v>1383.093855288175</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V40" t="n">
-        <v>1383.093855288175</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W40" t="n">
-        <v>1104.024190797049</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X40" t="n">
-        <v>1104.024190797049</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y40" t="n">
-        <v>1104.024190797049</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2462.839627293158</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C41" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D41" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E41" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F41" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G41" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H41" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I41" t="n">
         <v>93.2436976906228</v>
@@ -7438,25 +7438,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T41" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U41" t="n">
-        <v>4408.238733368956</v>
+        <v>4494.590496051882</v>
       </c>
       <c r="V41" t="n">
-        <v>4058.401178705436</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W41" t="n">
-        <v>3674.640877840605</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X41" t="n">
-        <v>3273.997480009557</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y41" t="n">
-        <v>2873.060806957647</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="42">
@@ -7493,7 +7493,7 @@
         <v>286.056555253256</v>
       </c>
       <c r="K42" t="n">
-        <v>567.0943644493211</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L42" t="n">
         <v>1228.182536368609</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3732.335952894417</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C43" t="n">
-        <v>3561.242580456134</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D43" t="n">
-        <v>3401.747935779044</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E43" t="n">
-        <v>3240.837120647363</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I43" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J43" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K43" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L43" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M43" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N43" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O43" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P43" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S43" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T43" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U43" t="n">
-        <v>4662.18488453114</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V43" t="n">
-        <v>4662.18488453114</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W43" t="n">
-        <v>4383.115220040014</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X43" t="n">
-        <v>4144.771357899697</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y43" t="n">
-        <v>3920.035659288462</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2102.237727455811</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.113136769081</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D44" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E44" t="n">
-        <v>899.2322418529996</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F44" t="n">
         <v>899.2322418529996</v>
@@ -7693,7 +7693,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y44" t="n">
-        <v>2512.458907120301</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J45" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K45" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L45" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M45" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N45" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O45" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P45" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q45" t="n">
         <v>2139.732893541123</v>
@@ -7836,19 +7836,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T46" t="n">
-        <v>1383.093855288175</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U46" t="n">
-        <v>1100.295707834299</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V46" t="n">
-        <v>826.4099627738212</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W46" t="n">
-        <v>547.3402982826956</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X46" t="n">
-        <v>308.996436142379</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y46" t="n">
         <v>93.2436976906228</v>
@@ -7981,10 +7981,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>490.0456851936598</v>
+        <v>490.0456851936601</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
@@ -7993,10 +7993,10 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
         <v>414.4388617681339</v>
@@ -8063,22 +8063,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808745</v>
+        <v>423.977364911776</v>
       </c>
       <c r="M3" t="n">
-        <v>72.04887768380517</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>59.00019910540541</v>
@@ -8215,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>594.2603172363629</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266448</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>201.8514806265823</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8458,22 +8458,22 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>615.3537948270709</v>
+        <v>269.8552598673813</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O8" t="n">
-        <v>594.1598684051006</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>362.3241544056888</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>232.580349157323</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O9" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8692,28 +8692,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>531.0119939709983</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>296.4405581451822</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,25 +8768,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>359.4030239885898</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
@@ -8926,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O14" t="n">
-        <v>594.1598684051006</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>87.31214281472352</v>
@@ -9008,22 +9008,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>362.0354133794547</v>
       </c>
       <c r="L15" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>363.7739143332569</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728292</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9166,13 +9166,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>632.7318453389137</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L17" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M17" t="n">
-        <v>877.4504173780091</v>
+        <v>877.4504173780092</v>
       </c>
       <c r="N17" t="n">
         <v>853.701196452193</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>548.7963290415029</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9722,10 +9722,10 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>547.3465691139345</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
@@ -9734,7 +9734,7 @@
         <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>621.6393243851574</v>
+        <v>261.3793689866603</v>
       </c>
       <c r="Q24" t="n">
         <v>410.0708656603775</v>
@@ -9886,7 +9886,7 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
-        <v>853.701196452193</v>
+        <v>853.7011964521931</v>
       </c>
       <c r="O26" t="n">
         <v>743.321953824879</v>
@@ -9898,7 +9898,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920627</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,22 +9953,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
@@ -10190,22 +10190,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
         <v>54.25963500280375</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
         <v>632.7318453389136</v>
@@ -10372,7 +10372,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,13 +10430,13 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>585.6215843269604</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
         <v>935.6763147186165</v>
@@ -10448,10 +10448,10 @@
         <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>165.2599378170126</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,13 +10664,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>560.7155587704844</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
         <v>909.0562844399999</v>
@@ -10679,13 +10679,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>261.3793689866603</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
         <v>59.00019910540541</v>
@@ -10907,7 +10907,7 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>517.4884687476421</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M39" t="n">
         <v>57.56428373841742</v>
@@ -10925,7 +10925,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11141,10 +11141,10 @@
         <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>339.7023577301357</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>723.8803540323523</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M42" t="n">
         <v>57.56428373841742</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>547.3465691139345</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.3960752911889</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -22558,10 +22558,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22600,19 +22600,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>87.84656151838192</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -22713,7 +22713,7 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -22752,10 +22752,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22770,10 +22770,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>214.6543374933686</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22786,13 +22786,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22834,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>390.2983828659825</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>111.6864177598423</v>
       </c>
     </row>
     <row r="6">
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.7759312759303</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>37.88400821173309</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,10 +23071,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
@@ -23089,7 +23089,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,25 +23178,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -23232,22 +23232,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>93.42449318090684</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="11">
@@ -23260,13 +23260,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>211.6595330684707</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>136.6181375426699</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.106155053831</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>121.8456165274207</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>237.76035048854</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23545,10 +23545,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
         <v>254.489886823085</v>
@@ -23560,7 +23560,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>142.2221917146625</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>57.06664624006523</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>308.5558614412301</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>54.06597461814528</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>45.84716204233405</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>49.19646844041395</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
         <v>169.3824387139007</v>
@@ -24378,13 +24378,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>157.8078017210091</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>193.4209809967733</v>
       </c>
     </row>
     <row r="26">
@@ -24499,7 +24499,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>3.083197172522006</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.7999067317759</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24688,19 +24688,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>25.66401796922042</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,7 +24739,7 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>49.19646844041392</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>23.12472639190929</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24919,7 +24919,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -24937,7 +24937,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>36.46078111520808</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24979,7 +24979,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>356.995880838972</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>59.70539135393376</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
         <v>165.577887163712</v>
@@ -25125,22 +25125,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>143.2832668079637</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>49.19646844041398</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25171,10 +25171,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>88.57144222861891</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25314,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.1113806425979</v>
@@ -25365,16 +25365,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>84.01475920548592</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>56.01419322081091</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>222.4997066824609</v>
+        <v>223.0676163851325</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>77.76782362276293</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,19 +25605,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>3.083197172522915</v>
+        <v>222.4997066824603</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25785,19 +25785,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>56.01419322081128</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
@@ -25839,13 +25839,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="44">
@@ -25870,13 +25870,13 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>25.66401796922133</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25933,7 +25933,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>42.06483528720071</v>
       </c>
     </row>
     <row r="45">
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884348</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>523787.9362221639</v>
+        <v>523787.936222164</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>797513.0854421662</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>797513.0854421662</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>797513.0854421664</v>
+        <v>797513.0854421662</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>797513.0854421665</v>
+        <v>797513.0854421662</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>797513.0854421661</v>
+        <v>797513.0854421663</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>797513.0854421663</v>
+        <v>797513.0854421664</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180746.0634768001</v>
+        <v>180746.0634768</v>
       </c>
       <c r="C2" t="n">
+        <v>180746.0634768</v>
+      </c>
+      <c r="D2" t="n">
+        <v>180746.0634768</v>
+      </c>
+      <c r="E2" t="n">
         <v>180746.0634767999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>180746.0634767999</v>
-      </c>
-      <c r="E2" t="n">
-        <v>180746.0634768</v>
       </c>
       <c r="F2" t="n">
         <v>180746.0634767999</v>
@@ -26337,7 +26337,7 @@
         <v>275166.2341583392</v>
       </c>
       <c r="J2" t="n">
-        <v>275166.2341583393</v>
+        <v>275166.2341583392</v>
       </c>
       <c r="K2" t="n">
         <v>275166.2341583392</v>
@@ -26346,10 +26346,10 @@
         <v>275166.2341583392</v>
       </c>
       <c r="M2" t="n">
+        <v>275166.2341583391</v>
+      </c>
+      <c r="N2" t="n">
         <v>275166.2341583393</v>
-      </c>
-      <c r="N2" t="n">
-        <v>275166.2341583392</v>
       </c>
       <c r="O2" t="n">
         <v>275166.2341583392</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>176368.942334311</v>
+        <v>176368.9423343109</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="C4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="D4" t="n">
         <v>39061.35498003941</v>
       </c>
       <c r="E4" t="n">
-        <v>39061.3549800394</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="F4" t="n">
         <v>39061.35498003941</v>
@@ -26438,25 +26438,25 @@
         <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
+        <v>59647.11115782198</v>
+      </c>
+      <c r="J4" t="n">
         <v>59647.11115782197</v>
-      </c>
-      <c r="J4" t="n">
-        <v>59647.11115782199</v>
       </c>
       <c r="K4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="L4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782198</v>
       </c>
       <c r="N4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="O4" t="n">
         <v>59647.11115782198</v>
-      </c>
-      <c r="O4" t="n">
-        <v>59647.11115782197</v>
       </c>
       <c r="P4" t="n">
         <v>59647.11115782197</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26493,16 +26493,16 @@
         <v>70865.21024487332</v>
       </c>
       <c r="J5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="K5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="L5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="M5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="N5" t="n">
         <v>70865.21024487332</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-98639.86647485089</v>
+        <v>-99317.3953342451</v>
       </c>
       <c r="C6" t="n">
-        <v>76315.64341826295</v>
+        <v>75638.11455886904</v>
       </c>
       <c r="D6" t="n">
-        <v>76315.64341826292</v>
+        <v>75638.11455886895</v>
       </c>
       <c r="E6" t="n">
-        <v>109943.243418263</v>
+        <v>109265.7145588689</v>
       </c>
       <c r="F6" t="n">
-        <v>109943.2434182629</v>
+        <v>109265.7145588689</v>
       </c>
       <c r="G6" t="n">
-        <v>-31715.02957866702</v>
+        <v>-31895.61017131618</v>
       </c>
       <c r="H6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629949</v>
       </c>
       <c r="I6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629947</v>
       </c>
       <c r="J6" t="n">
-        <v>8059.111949748942</v>
+        <v>7878.531357099783</v>
       </c>
       <c r="K6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629948</v>
       </c>
       <c r="L6" t="n">
-        <v>144653.9127556438</v>
+        <v>144473.3321629948</v>
       </c>
       <c r="M6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629947</v>
       </c>
       <c r="N6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629949</v>
       </c>
       <c r="O6" t="n">
-        <v>-10200.83063306496</v>
+        <v>-10381.41122571404</v>
       </c>
       <c r="P6" t="n">
-        <v>144653.9127556439</v>
+        <v>144473.3321629949</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700257</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>643.4826507627595</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34701,10 +34701,10 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>400.9092955204426</v>
+        <v>400.909295520443</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,10 +34713,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
         <v>324.4050573689818</v>
@@ -34783,22 +34783,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700254</v>
+        <v>367.862841100927</v>
       </c>
       <c r="M3" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35178,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>522.0635703700254</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O8" t="n">
-        <v>500.9700927793174</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>306.2096305948397</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>179.386955763573</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35412,28 +35412,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977813</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>306.2096305948398</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>500.9700927793174</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>306.2096305948393</v>
       </c>
       <c r="L15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>306.2096305948394</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>543.5954556656966</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L17" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M17" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209637</v>
       </c>
       <c r="N17" t="n">
         <v>760.7889056955737</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,10 +36442,10 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>491.2320453030855</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>567.3796893823536</v>
+        <v>207.1197339838565</v>
       </c>
       <c r="Q24" t="n">
         <v>353.3782471555388</v>
@@ -36606,7 +36606,7 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N26" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955738</v>
       </c>
       <c r="O26" t="n">
         <v>650.1321781990958</v>
@@ -36618,7 +36618,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R26" t="n">
-        <v>40.96630877733921</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,22 +36673,22 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36910,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
         <v>543.5954556656965</v>
@@ -37092,7 +37092,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>882.4829213248665</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>108.5673193121739</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>504.6010349596355</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>851.4920007015825</v>
@@ -37399,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>207.1197339838565</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37627,7 +37627,7 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>461.373944936793</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37861,10 +37861,10 @@
         <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>283.8765749455203</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>667.7658302215033</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>491.2320453030855</v>
       </c>
       <c r="M45" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
